--- a/Modbus_Tags.xlsb.xlsx
+++ b/Modbus_Tags.xlsb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Documents\GitHub\Alchemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1AC060E-90E5-4717-91E0-4F2E138D537E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4969C0A6-5C70-46EF-9F42-51C6841C963A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Tag List" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="General Status Enumeration" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,26 +38,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>Data Type</t>
   </si>
   <si>
-    <t>Object Type</t>
-  </si>
-  <si>
     <t>Read/Write</t>
   </si>
   <si>
     <t>Tag Name</t>
   </si>
   <si>
-    <t>Coils</t>
-  </si>
-  <si>
-    <t>Single Bit</t>
-  </si>
-  <si>
     <t>Read-Write</t>
   </si>
   <si>
@@ -71,75 +61,6 @@
     <t>Read-Only</t>
   </si>
   <si>
-    <t>Input Registers</t>
-  </si>
-  <si>
-    <t>16 - bit</t>
-  </si>
-  <si>
-    <t>Valve_1</t>
-  </si>
-  <si>
-    <t>Valve_0</t>
-  </si>
-  <si>
-    <t>Valve_2</t>
-  </si>
-  <si>
-    <t>Valve_3</t>
-  </si>
-  <si>
-    <t>Valve_4</t>
-  </si>
-  <si>
-    <t>Valve_5</t>
-  </si>
-  <si>
-    <t>Valve_6</t>
-  </si>
-  <si>
-    <t>Scale_0</t>
-  </si>
-  <si>
-    <t>Scale_1</t>
-  </si>
-  <si>
-    <t>Scale_2</t>
-  </si>
-  <si>
-    <t>Scale_3</t>
-  </si>
-  <si>
-    <t>Scale_4</t>
-  </si>
-  <si>
-    <t>Scale_5</t>
-  </si>
-  <si>
-    <t>Scale_6</t>
-  </si>
-  <si>
-    <t>Scale_0_Tare</t>
-  </si>
-  <si>
-    <t>Scale_1_Tare</t>
-  </si>
-  <si>
-    <t>Scale_2_Tare</t>
-  </si>
-  <si>
-    <t>Scale_3_Tare</t>
-  </si>
-  <si>
-    <t>Scale_4_Tare</t>
-  </si>
-  <si>
-    <t>Scale_5_Tare</t>
-  </si>
-  <si>
-    <t>Scale_6_Tare</t>
-  </si>
-  <si>
     <t>Error ID</t>
   </si>
   <si>
@@ -168,13 +89,181 @@
   </si>
   <si>
     <t>No Status Message</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Pump Running</t>
+  </si>
+  <si>
+    <t>Mixer Running</t>
+  </si>
+  <si>
+    <t>Pump Speed</t>
+  </si>
+  <si>
+    <t>Pump Direction</t>
+  </si>
+  <si>
+    <t>Solenoid #0</t>
+  </si>
+  <si>
+    <t>Discrete</t>
+  </si>
+  <si>
+    <t>Solenoid #1</t>
+  </si>
+  <si>
+    <t>Solenoid #2</t>
+  </si>
+  <si>
+    <t>Solenoid #3</t>
+  </si>
+  <si>
+    <t>Solenoid #4</t>
+  </si>
+  <si>
+    <t>Solenoid #5</t>
+  </si>
+  <si>
+    <t>Solenoid #6</t>
+  </si>
+  <si>
+    <t>Unsigned_int_16</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array Index </t>
+  </si>
+  <si>
+    <t>Phase Mix</t>
+  </si>
+  <si>
+    <t>Phase Initalize</t>
+  </si>
+  <si>
+    <t>Phase Idle</t>
+  </si>
+  <si>
+    <t>Phase Dispense</t>
+  </si>
+  <si>
+    <t>Phase End</t>
+  </si>
+  <si>
+    <t>MB_HR[0]</t>
+  </si>
+  <si>
+    <t>MB_C[0]</t>
+  </si>
+  <si>
+    <t>MB_C[1]</t>
+  </si>
+  <si>
+    <t>MB_C[2]</t>
+  </si>
+  <si>
+    <t>MB_C[3]</t>
+  </si>
+  <si>
+    <t>MB_C[4]</t>
+  </si>
+  <si>
+    <t>MB_C[5]</t>
+  </si>
+  <si>
+    <t>MB_C[6]</t>
+  </si>
+  <si>
+    <t>MB_C[7]</t>
+  </si>
+  <si>
+    <t>MB_C[8]</t>
+  </si>
+  <si>
+    <t>MB_C[9]</t>
+  </si>
+  <si>
+    <t>MB_I[0]</t>
+  </si>
+  <si>
+    <t>Service Mode</t>
+  </si>
+  <si>
+    <t>Production Mode</t>
+  </si>
+  <si>
+    <t>Engineering Mode</t>
+  </si>
+  <si>
+    <t>MB_C[10]</t>
+  </si>
+  <si>
+    <t>MB_C[11]</t>
+  </si>
+  <si>
+    <t>MB_C[12]</t>
+  </si>
+  <si>
+    <t>MB_C[13]</t>
+  </si>
+  <si>
+    <t>Internal Boolean Data</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +285,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -211,18 +308,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -247,13 +335,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -590,344 +689,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85483887-8404-42FC-A14C-0D59A783FB69}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="D13" s="2">
         <v>11</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -951,13 +1034,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,10 +1048,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,10 +1059,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -996,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6C8759-0075-4285-91DE-EA86799B1A2B}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,10 +1091,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1019,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Modbus_Tags.xlsb.xlsx
+++ b/Modbus_Tags.xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Documents\GitHub\Alchemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4969C0A6-5C70-46EF-9F42-51C6841C963A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775826C0-6D27-4079-B4D4-2D17FAD01BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Tag List" sheetId="1" r:id="rId1"/>
@@ -220,9 +220,6 @@
     <t>MB_I[0]</t>
   </si>
   <si>
-    <t>Service Mode</t>
-  </si>
-  <si>
     <t>Production Mode</t>
   </si>
   <si>
@@ -257,6 +254,9 @@
   </si>
   <si>
     <t>014</t>
+  </si>
+  <si>
+    <t>Clean Mode</t>
   </si>
 </sst>
 </file>
@@ -335,15 +335,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -692,7 +689,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +697,7 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -732,10 +729,10 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -749,10 +746,10 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -766,10 +763,10 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -783,10 +780,10 @@
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -800,10 +797,10 @@
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -817,14 +814,14 @@
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="5" t="s">
-        <v>67</v>
+      <c r="J7" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -837,13 +834,13 @@
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -857,18 +854,18 @@
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -877,18 +874,18 @@
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -897,18 +894,18 @@
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -917,13 +914,13 @@
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -940,76 +937,76 @@
       <c r="D13" s="2">
         <v>11</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="6" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Modbus_Tags.xlsb.xlsx
+++ b/Modbus_Tags.xlsb.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Documents\GitHub\Alchemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{775826C0-6D27-4079-B4D4-2D17FAD01BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDA5B38-0ADA-4E2A-912F-D9985356C5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Tag List" sheetId="1" r:id="rId1"/>
     <sheet name="Error Enumeration" sheetId="2" r:id="rId2"/>
-    <sheet name="General Status Enumeration" sheetId="3" r:id="rId3"/>
+    <sheet name="Enumerations" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
   <si>
     <t>Data Type</t>
   </si>
@@ -82,15 +82,6 @@
     <t>Power Cycle</t>
   </si>
   <si>
-    <t>Message ID</t>
-  </si>
-  <si>
-    <t>Message Body</t>
-  </si>
-  <si>
-    <t>No Status Message</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
@@ -257,6 +248,84 @@
   </si>
   <si>
     <t>Clean Mode</t>
+  </si>
+  <si>
+    <t>Enum</t>
+  </si>
+  <si>
+    <t>Bottle Enumeration</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>State/Message</t>
+  </si>
+  <si>
+    <t>Nothing/Inactive</t>
+  </si>
+  <si>
+    <t>Filling</t>
+  </si>
+  <si>
+    <t>Filled</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Bottle Station State #1</t>
+  </si>
+  <si>
+    <t>Bottle Station State #2</t>
+  </si>
+  <si>
+    <t>Bottle Station State #3</t>
+  </si>
+  <si>
+    <t>Bottle Station State #4</t>
+  </si>
+  <si>
+    <t>Bottle Station State #5</t>
+  </si>
+  <si>
+    <t>Bottle Station State #6</t>
+  </si>
+  <si>
+    <t>MB_HR[1]</t>
+  </si>
+  <si>
+    <t>MB_HR[2]</t>
+  </si>
+  <si>
+    <t>MB_HR[3]</t>
+  </si>
+  <si>
+    <t>MB_HR[4]</t>
+  </si>
+  <si>
+    <t>MB_HR[5]</t>
+  </si>
+  <si>
+    <t>MB_HR[6]</t>
+  </si>
+  <si>
+    <t>Production Phase</t>
+  </si>
+  <si>
+    <t>Clean Phase</t>
+  </si>
+  <si>
+    <t>MB_HR[7]</t>
+  </si>
+  <si>
+    <t>MB_HR[8]</t>
+  </si>
+  <si>
+    <t>``</t>
+  </si>
+  <si>
+    <t>Not Ready</t>
   </si>
 </sst>
 </file>
@@ -308,7 +377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -331,11 +400,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -350,6 +430,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -686,15 +775,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85483887-8404-42FC-A14C-0D59A783FB69}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
@@ -713,215 +802,215 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -938,75 +1027,216 @@
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>65</v>
+      <c r="C18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>42</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>43</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>45</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>46</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>48</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>49</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1074,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6C8759-0075-4285-91DE-EA86799B1A2B}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,22 +1317,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Modbus_Tags.xlsb.xlsx
+++ b/Modbus_Tags.xlsb.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Documents\GitHub\Alchemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDA5B38-0ADA-4E2A-912F-D9985356C5AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82D9934-B129-4C5F-A96A-8D81D3843DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Tag List" sheetId="1" r:id="rId1"/>
-    <sheet name="Error Enumeration" sheetId="2" r:id="rId2"/>
-    <sheet name="Enumerations" sheetId="3" r:id="rId3"/>
+    <sheet name="Enumerations" sheetId="3" r:id="rId2"/>
+    <sheet name="Error Enumeration" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
   <si>
     <t>Data Type</t>
   </si>
@@ -253,9 +253,6 @@
     <t>Enum</t>
   </si>
   <si>
-    <t>Bottle Enumeration</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
@@ -322,10 +319,67 @@
     <t>MB_HR[8]</t>
   </si>
   <si>
-    <t>``</t>
-  </si>
-  <si>
     <t>Not Ready</t>
+  </si>
+  <si>
+    <t>Bottle Count Target</t>
+  </si>
+  <si>
+    <t>Current Bottle Count</t>
+  </si>
+  <si>
+    <t>MB_HR[9]</t>
+  </si>
+  <si>
+    <t>MB_HR[10]</t>
+  </si>
+  <si>
+    <t>Bottle Size</t>
+  </si>
+  <si>
+    <t>Not selected</t>
+  </si>
+  <si>
+    <t>250ml</t>
+  </si>
+  <si>
+    <t>120ml</t>
+  </si>
+  <si>
+    <t>625ml</t>
+  </si>
+  <si>
+    <t>Out of Service</t>
+  </si>
+  <si>
+    <t>Valve / Bottle Enumeration</t>
+  </si>
+  <si>
+    <t>Production Phases</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Starting</t>
+  </si>
+  <si>
+    <t>Running</t>
+  </si>
+  <si>
+    <t>Stopping</t>
+  </si>
+  <si>
+    <t>Stopped</t>
+  </si>
+  <si>
+    <t>Idle</t>
+  </si>
+  <si>
+    <t>Ending Run</t>
+  </si>
+  <si>
+    <t>ProductionScreenHide</t>
   </si>
 </sst>
 </file>
@@ -377,7 +431,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -400,22 +454,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,13 +475,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -775,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85483887-8404-42FC-A14C-0D59A783FB69}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,153 +1143,411 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="2">
         <v>42</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="2">
         <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="2">
         <v>44</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="2">
         <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="2">
         <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="2">
         <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="2">
         <v>48</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="2">
         <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>410</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>411</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="2">
+        <v>15</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A29:E29"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6C8759-0075-4285-91DE-EA86799B1A2B}">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>0</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>1</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <v>2</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <v>3</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <v>0</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>2</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>3</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>4</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <v>5</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <v>6</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D33077-0D4C-4881-8646-AB8721E8ED31}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1300,80 +1602,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6C8759-0075-4285-91DE-EA86799B1A2B}">
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Modbus_Tags.xlsb.xlsx
+++ b/Modbus_Tags.xlsb.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Documents\GitHub\Alchemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82D9934-B129-4C5F-A96A-8D81D3843DB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433FF26F-FCB6-42FD-9AA3-17AFB61B7DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Tag List" sheetId="1" r:id="rId1"/>
-    <sheet name="Enumerations" sheetId="3" r:id="rId2"/>
-    <sheet name="Error Enumeration" sheetId="2" r:id="rId3"/>
+    <sheet name="IO" sheetId="5" r:id="rId2"/>
+    <sheet name="Enumerations" sheetId="3" r:id="rId3"/>
+    <sheet name="Error Enumeration" sheetId="2" r:id="rId4"/>
+    <sheet name="Checkout" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
   <si>
     <t>Data Type</t>
   </si>
@@ -380,6 +382,183 @@
   </si>
   <si>
     <t>ProductionScreenHide</t>
+  </si>
+  <si>
+    <t>Checkout Items</t>
+  </si>
+  <si>
+    <t>E-Stop Funcionality</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Cleaning</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>HMI Programming</t>
+  </si>
+  <si>
+    <t>Pump Math</t>
+  </si>
+  <si>
+    <t>Modes / details</t>
+  </si>
+  <si>
+    <t>Workout estimate for flow rate to calculate stop timing</t>
+  </si>
+  <si>
+    <t>Establish golden run</t>
+  </si>
+  <si>
+    <t>Run tthrough whole tank</t>
+  </si>
+  <si>
+    <t>Finish Engineering Mode</t>
+  </si>
+  <si>
+    <t>Finish Production Mode</t>
+  </si>
+  <si>
+    <t>Finish Cleaning Mode</t>
+  </si>
+  <si>
+    <t>Check with Susan on preference</t>
+  </si>
+  <si>
+    <t>Documentation / trainning</t>
+  </si>
+  <si>
+    <t>Full IO control</t>
+  </si>
+  <si>
+    <t>Access screen</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>MB_HR[11]</t>
+  </si>
+  <si>
+    <t>Channel 1</t>
+  </si>
+  <si>
+    <t>Channel 2</t>
+  </si>
+  <si>
+    <t>Channel 3</t>
+  </si>
+  <si>
+    <t>Channel 4</t>
+  </si>
+  <si>
+    <t>Channel 5</t>
+  </si>
+  <si>
+    <t>Channel 6</t>
+  </si>
+  <si>
+    <t>Channel 7</t>
+  </si>
+  <si>
+    <t>Channel 8</t>
+  </si>
+  <si>
+    <t>Slot1 - Relay Card</t>
+  </si>
+  <si>
+    <t>Valve 0 - MB_C[0]</t>
+  </si>
+  <si>
+    <t>Valve 1 - MB_C[1]</t>
+  </si>
+  <si>
+    <t>Valve 2 - MB_C[2]</t>
+  </si>
+  <si>
+    <t>Valve 3 - MB_C[3]</t>
+  </si>
+  <si>
+    <t>Valve 4 - MB_C[4]</t>
+  </si>
+  <si>
+    <t>Valve 5 - MB_C[5]</t>
+  </si>
+  <si>
+    <t>Valve 6 - MB_C[6]</t>
+  </si>
+  <si>
+    <t>Pump On/Off - MB_C[7]</t>
+  </si>
+  <si>
+    <t>Slot 3 - PWM Card</t>
+  </si>
+  <si>
+    <t>Slot2 - Combo Discrete Card</t>
+  </si>
+  <si>
+    <t>Channel 1 Input</t>
+  </si>
+  <si>
+    <t>Channel 3 Input</t>
+  </si>
+  <si>
+    <t>Channel 4 Input</t>
+  </si>
+  <si>
+    <t>Channel 5 Input</t>
+  </si>
+  <si>
+    <t>Channel 6 Input</t>
+  </si>
+  <si>
+    <t>Channel 7 Input</t>
+  </si>
+  <si>
+    <t>Channel 8 Input</t>
+  </si>
+  <si>
+    <t>Channel 2 Input</t>
+  </si>
+  <si>
+    <t>Channel 1 Output</t>
+  </si>
+  <si>
+    <t>Channel 2 Output</t>
+  </si>
+  <si>
+    <t>Channel 3 Output</t>
+  </si>
+  <si>
+    <t>Channel 4 Output</t>
+  </si>
+  <si>
+    <t>Channel 5 Output</t>
+  </si>
+  <si>
+    <t>Channel 6 Output</t>
+  </si>
+  <si>
+    <t>Channel 7 Output</t>
+  </si>
+  <si>
+    <t>E-Stop - MB_I[0]</t>
+  </si>
+  <si>
+    <t>Mixer On/Off - MB_C[8]</t>
+  </si>
+  <si>
+    <t>Pump Direction -MB_C[9]</t>
+  </si>
+  <si>
+    <t>Pump Speed - MB_HR[0]</t>
   </si>
 </sst>
 </file>
@@ -431,7 +610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -454,11 +633,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,16 +676,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,7 +1030,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1296,7 +1504,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -1313,44 +1521,250 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="2">
         <v>15</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="A29" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>412</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A29:E29"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B4BE96-27F6-4F6E-803F-A5463698A879}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6C8759-0075-4285-91DE-EA86799B1A2B}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B13" sqref="B13:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1360,10 +1774,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1414,18 +1828,18 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1436,42 +1850,42 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>0</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="6">
         <v>1</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>2</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="2" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>3</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="6">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="6"/>
+      <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1482,58 +1896,58 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="6">
         <v>0</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>1</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="6">
         <v>2</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
-        <v>3</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="6">
+        <v>3</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="6">
         <v>4</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <v>5</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="6">
         <v>6</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1547,7 +1961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D33077-0D4C-4881-8646-AB8721E8ED31}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1602,4 +2016,135 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF949C9-E639-47DB-875B-4F13A783589E}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B11:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Modbus_Tags.xlsb.xlsx
+++ b/Modbus_Tags.xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Documents\GitHub\Alchemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433FF26F-FCB6-42FD-9AA3-17AFB61B7DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584B5EF5-0634-494D-BAAD-E5233A329C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="169">
   <si>
     <t>Data Type</t>
   </si>
@@ -54,15 +54,6 @@
     <t>Read-Write</t>
   </si>
   <si>
-    <t>E-Stop</t>
-  </si>
-  <si>
-    <t>Discrete Input</t>
-  </si>
-  <si>
-    <t>Read-Only</t>
-  </si>
-  <si>
     <t>Error ID</t>
   </si>
   <si>
@@ -210,9 +201,6 @@
     <t>MB_C[9]</t>
   </si>
   <si>
-    <t>MB_I[0]</t>
-  </si>
-  <si>
     <t>Production Mode</t>
   </si>
   <si>
@@ -243,9 +231,6 @@
     <t>013</t>
   </si>
   <si>
-    <t>Reset</t>
-  </si>
-  <si>
     <t>014</t>
   </si>
   <si>
@@ -559,6 +544,9 @@
   </si>
   <si>
     <t>Pump Speed - MB_HR[0]</t>
+  </si>
+  <si>
+    <t>E-stop / reset</t>
   </si>
 </sst>
 </file>
@@ -659,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -677,22 +665,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1027,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85483887-8404-42FC-A14C-0D59A783FB69}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,504 +1039,487 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="2">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>68</v>
+      <c r="D17" s="2">
+        <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="2">
-        <v>49</v>
+        <v>410</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D27" s="2">
-        <v>411</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2">
-        <v>15</v>
+        <v>412</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2">
-        <v>412</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1580,176 +1548,176 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
-      <c r="B1" s="14" t="s">
-        <v>143</v>
+      <c r="B1" s="11" t="s">
+        <v>138</v>
       </c>
       <c r="C1" s="6"/>
-      <c r="D1" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>152</v>
+      <c r="D1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>135</v>
+        <v>164</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>130</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>145</v>
+        <v>131</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="12" t="s">
-        <v>136</v>
+      <c r="E3" s="9" t="s">
+        <v>131</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>146</v>
+        <v>132</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="12" t="s">
-        <v>137</v>
+      <c r="E4" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>147</v>
+        <v>133</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="12" t="s">
-        <v>138</v>
+      <c r="E5" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>148</v>
+        <v>134</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>149</v>
+        <v>135</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>150</v>
+        <v>136</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>151</v>
+        <v>137</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -1774,17 +1742,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="8"/>
+      <c r="A1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1792,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1800,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1808,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1816,7 +1784,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1824,7 +1792,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1832,21 +1800,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="8"/>
+      <c r="A10" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="12"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1854,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1862,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1870,7 +1838,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,21 +1846,21 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="8"/>
+      <c r="A17" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1900,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,7 +1876,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1916,7 +1884,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1924,7 +1892,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1932,7 +1900,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1940,7 +1908,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1948,7 +1916,7 @@
         <v>6</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -1977,13 +1945,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1991,10 +1959,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2002,10 +1970,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2035,109 +2003,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>125</v>
+        <v>97</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
         <v>126</v>
       </c>
-      <c r="B7" t="s">
-        <v>131</v>
-      </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+        <v>125</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Modbus_Tags.xlsb.xlsx
+++ b/Modbus_Tags.xlsb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Documents\GitHub\Alchemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584B5EF5-0634-494D-BAAD-E5233A329C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B414792-0E83-4F92-A24A-DDA5C022DD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Tag List" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="171">
   <si>
     <t>Data Type</t>
   </si>
@@ -547,6 +547,12 @@
   </si>
   <si>
     <t>E-stop / reset</t>
+  </si>
+  <si>
+    <t>Cleaning Phases</t>
+  </si>
+  <si>
+    <t>None/Blank</t>
   </si>
 </sst>
 </file>
@@ -598,7 +604,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -643,11 +649,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -678,6 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,7 +1033,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="E37" sqref="E36:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6C8759-0075-4285-91DE-EA86799B1A2B}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B15"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,11 +1937,87 @@
         <v>107</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Modbus_Tags.xlsb.xlsx
+++ b/Modbus_Tags.xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Documents\GitHub\Alchemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B414792-0E83-4F92-A24A-DDA5C022DD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FA4A1F-E9E5-49F1-8C2F-DED9A3261558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="173">
   <si>
     <t>Data Type</t>
   </si>
@@ -426,9 +426,6 @@
     <t>Access screen</t>
   </si>
   <si>
-    <t>Timer</t>
-  </si>
-  <si>
     <t>MB_HR[11]</t>
   </si>
   <si>
@@ -553,6 +550,15 @@
   </si>
   <si>
     <t>None/Blank</t>
+  </si>
+  <si>
+    <t>MB_HR[12]</t>
+  </si>
+  <si>
+    <t>TimerMin</t>
+  </si>
+  <si>
+    <t>TimerSec</t>
   </si>
 </sst>
 </file>
@@ -689,13 +695,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1030,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85483887-8404-42FC-A14C-0D59A783FB69}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E36:E37"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,7 +1327,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
@@ -1525,7 +1531,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>31</v>
@@ -1537,7 +1543,24 @@
         <v>412</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>413</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1567,175 +1590,175 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -1760,10 +1783,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1822,10 +1845,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -1868,10 +1891,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B17" s="12"/>
+      <c r="B17" s="13"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
@@ -1938,10 +1961,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="12"/>
+      <c r="A27" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
@@ -1956,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1978,37 +2001,37 @@
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="A33" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14">
+      <c r="A34" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="A35" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="14">
+      <c r="A36" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="A37" s="12">
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14">
+      <c r="A38" s="12">
         <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="A39" s="12">
         <v>10</v>
       </c>
     </row>
@@ -2100,12 +2123,12 @@
       <c r="A1" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2145,12 +2168,12 @@
       <c r="A4" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2194,12 +2217,12 @@
       <c r="A11" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Modbus_Tags.xlsb.xlsx
+++ b/Modbus_Tags.xlsb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Documents\GitHub\Alchemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FA4A1F-E9E5-49F1-8C2F-DED9A3261558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7445C8-5964-4482-ABE5-0BDF0111E16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="176">
   <si>
     <t>Data Type</t>
   </si>
@@ -559,6 +559,15 @@
   </si>
   <si>
     <t>TimerSec</t>
+  </si>
+  <si>
+    <t>Manual Mode</t>
+  </si>
+  <si>
+    <t>MB_C[14]</t>
+  </si>
+  <si>
+    <t>015</t>
   </si>
 </sst>
 </file>
@@ -670,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -700,6 +709,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1036,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85483887-8404-42FC-A14C-0D59A783FB69}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1561,6 +1573,23 @@
       </c>
       <c r="E29" s="2" t="s">
         <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/Modbus_Tags.xlsb.xlsx
+++ b/Modbus_Tags.xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Documents\GitHub\Alchemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7445C8-5964-4482-ABE5-0BDF0111E16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7422A7-6293-4744-9A17-8E8D94692809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Tag List" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="177">
   <si>
     <t>Data Type</t>
   </si>
@@ -204,9 +204,6 @@
     <t>Production Mode</t>
   </si>
   <si>
-    <t>Engineering Mode</t>
-  </si>
-  <si>
     <t>MB_C[10]</t>
   </si>
   <si>
@@ -568,6 +565,12 @@
   </si>
   <si>
     <t>015</t>
+  </si>
+  <si>
+    <t>MB_HR[13]</t>
+  </si>
+  <si>
+    <t>BottleSize</t>
   </si>
 </sst>
 </file>
@@ -711,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1048,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85483887-8404-42FC-A14C-0D59A783FB69}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B30:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,7 +1186,7 @@
         <v>48</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1288,7 +1291,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>24</v>
@@ -1297,27 +1300,21 @@
         <v>3</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1331,15 +1328,15 @@
         <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
@@ -1348,18 +1345,18 @@
         <v>3</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
@@ -1368,15 +1365,15 @@
         <v>42</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
@@ -1385,15 +1382,15 @@
         <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
@@ -1402,15 +1399,15 @@
         <v>44</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
@@ -1419,15 +1416,15 @@
         <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
@@ -1436,15 +1433,15 @@
         <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
@@ -1453,15 +1450,15 @@
         <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
@@ -1470,15 +1467,15 @@
         <v>48</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
@@ -1487,12 +1484,12 @@
         <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>31</v>
@@ -1504,12 +1501,12 @@
         <v>410</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>31</v>
@@ -1521,12 +1518,12 @@
         <v>411</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
@@ -1543,7 +1540,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>31</v>
@@ -1555,12 +1552,12 @@
         <v>412</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>31</v>
@@ -1572,12 +1569,12 @@
         <v>413</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>173</v>
+      <c r="A30" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>24</v>
@@ -1586,10 +1583,27 @@
         <v>3</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>413</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1617,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,175 +1633,175 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -1801,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6C8759-0075-4285-91DE-EA86799B1A2B}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,16 +1827,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="13"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1830,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1838,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1846,7 +1860,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1854,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1862,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1870,21 +1884,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" s="13"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1892,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1900,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1908,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1916,21 +1930,21 @@
         <v>3</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17" s="13"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1938,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1946,7 +1960,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1954,7 +1968,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1962,7 +1976,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1970,7 +1984,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1978,7 +1992,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1986,21 +2000,21 @@
         <v>6</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" s="13"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2008,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2150,10 +2164,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -2161,44 +2175,44 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>111</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>112</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>113</v>
-      </c>
-      <c r="E2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
         <v>111</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>112</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>113</v>
-      </c>
-      <c r="E3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -2206,48 +2220,48 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
         <v>126</v>
-      </c>
-      <c r="C7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>

--- a/Modbus_Tags.xlsb.xlsx
+++ b/Modbus_Tags.xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunca\Documents\GitHub\Alchemy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7422A7-6293-4744-9A17-8E8D94692809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D21678C-611B-4015-89B2-F7F9202CC6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{4AD5CBED-8372-44A8-B2C4-3A6BCD43FD21}"/>
   </bookViews>
   <sheets>
     <sheet name="Tag List" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="178">
   <si>
     <t>Data Type</t>
   </si>
@@ -336,9 +336,6 @@
     <t>Out of Service</t>
   </si>
   <si>
-    <t>Valve / Bottle Enumeration</t>
-  </si>
-  <si>
     <t>Production Phases</t>
   </si>
   <si>
@@ -571,6 +568,12 @@
   </si>
   <si>
     <t>BottleSize</t>
+  </si>
+  <si>
+    <t>Bottle Enumeration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                   </t>
   </si>
 </sst>
 </file>
@@ -682,7 +685,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -714,9 +717,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,6 +732,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57490</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123994</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74B73AC-5D7E-785B-0CC0-4BC6497A984A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="257175"/>
+          <a:ext cx="2438740" cy="1209844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1336,7 +1385,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
@@ -1523,7 +1572,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
@@ -1540,7 +1589,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>31</v>
@@ -1552,12 +1601,12 @@
         <v>412</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>31</v>
@@ -1569,12 +1618,12 @@
         <v>413</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>24</v>
@@ -1583,15 +1632,15 @@
         <v>3</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>176</v>
+      <c r="A31" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>64</v>
@@ -1603,7 +1652,7 @@
         <v>413</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1633,175 +1682,175 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6"/>
       <c r="B1" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -1813,10 +1862,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA6C8759-0075-4285-91DE-EA86799B1A2B}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,13 +1874,13 @@
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
@@ -1839,7 +1888,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -1847,39 +1896,39 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1887,13 +1936,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>92</v>
       </c>
       <c r="B10" s="13"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
@@ -1901,7 +1950,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>0</v>
       </c>
@@ -1909,15 +1958,18 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>2</v>
       </c>
@@ -1925,7 +1977,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>3</v>
       </c>
@@ -1935,7 +1987,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17" s="13"/>
     </row>
@@ -1952,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1960,7 +2012,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1968,7 +2020,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1976,7 +2028,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +2036,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2000,12 +2052,12 @@
         <v>6</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27" s="13"/>
     </row>
@@ -2022,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -2086,6 +2138,7 @@
     <mergeCell ref="A27:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2164,10 +2217,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="14"/>
@@ -2175,44 +2228,44 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
         <v>109</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>112</v>
-      </c>
-      <c r="E2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
         <v>110</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>111</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>112</v>
-      </c>
-      <c r="E3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
@@ -2220,7 +2273,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>95</v>
@@ -2232,36 +2285,36 @@
         <v>96</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
         <v>125</v>
-      </c>
-      <c r="C7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
